--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EBFC67-EDAE-4083-90E7-3FFDCDB3B425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E0AE6B-98E7-4C45-81D5-A7D1E7E48A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -153,12 +153,6 @@
   </si>
   <si>
     <t>Activity và Sequence chức năng Đăng kí, đăng nhập, đổi mật khẩu, quên mật khẩu</t>
-  </si>
-  <si>
-    <t>Code giao diện đăng kí đăng nhập</t>
-  </si>
-  <si>
-    <t>Xử lý chức năng đăng ký, đăng nhập, quên mật khẩu</t>
   </si>
   <si>
     <t>Code giao diện xem thông tin phim</t>
@@ -261,6 +255,15 @@
   </si>
   <si>
     <t>Tuần 8 (12/5 đến 18/5)</t>
+  </si>
+  <si>
+    <t>Code giao diện đăng kí đăng nhập, quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Xử lý chức năng đăng ký, đăng nhập, quên mật khẩu, đăng xuất</t>
+  </si>
+  <si>
+    <t>Code giao diện trang thông báo thành công khi ấn quên mật khẩu thành công</t>
   </si>
 </sst>
 </file>
@@ -432,108 +435,108 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,20 +869,20 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -903,101 +906,101 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="26" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="26" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="26" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="35" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1006,505 +1009,519 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="15" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="26" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="26" t="s">
+      <c r="A18" s="32"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="26" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="26" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="26" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32"/>
+      <c r="B22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="14" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="11" t="s">
+      <c r="D31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="31" t="s">
+      <c r="E40" s="10"/>
+      <c r="F40" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
-      <c r="B41" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="14" t="s">
-        <v>71</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="3" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="15"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A26:A44"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A4:A25"/>
+    <mergeCell ref="A4:A26"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A27:A45"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E0AE6B-98E7-4C45-81D5-A7D1E7E48A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2726A3E7-0675-4ADD-B38F-714BC392FD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Tối ưu hóa các chức năng của website</t>
   </si>
   <si>
-    <t>Kiểm tra bảo mật của website, phân quyền client và admin</t>
-  </si>
-  <si>
     <t>Tuần 7 (5/5 đến 12/5)</t>
   </si>
   <si>
@@ -264,6 +261,21 @@
   </si>
   <si>
     <t>Code giao diện trang thông báo thành công khi ấn quên mật khẩu thành công</t>
+  </si>
+  <si>
+    <t>Code chức năng phân quyền,Custom Security Spring + Config Spring Security</t>
+  </si>
+  <si>
+    <t>Code giao diện không tìm được phim + gợi ý tên phim</t>
+  </si>
+  <si>
+    <t>Kiểm tra bảo mật của website</t>
+  </si>
+  <si>
+    <t>Vẽ kiến trúc phần mềm</t>
+  </si>
+  <si>
+    <t>Phan Thanh Phúc Duy+Nguyễn Thái Đức</t>
   </si>
 </sst>
 </file>
@@ -459,19 +471,67 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -480,18 +540,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,42 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="D27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,26 +875,26 @@
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="104.5703125" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -906,13 +918,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -926,9 +938,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
@@ -940,9 +952,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
@@ -954,9 +966,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
@@ -968,9 +980,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
@@ -982,9 +994,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="41"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="15" t="s">
         <v>34</v>
       </c>
@@ -996,11 +1008,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1014,9 +1026,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="39"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1028,9 +1040,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="39"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1042,9 +1054,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="39"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1056,9 +1068,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="39"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1070,9 +1082,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="39"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1084,11 +1096,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1102,9 +1114,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="37"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1116,9 +1128,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
@@ -1130,9 +1142,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="37"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
@@ -1144,9 +1156,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
@@ -1158,11 +1170,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>21</v>
@@ -1172,15 +1184,15 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>21</v>
@@ -1190,11 +1202,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="39"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -1204,9 +1216,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="39"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1218,9 +1230,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="39"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1232,9 +1244,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="40"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="6" t="s">
         <v>47</v>
       </c>
@@ -1246,13 +1258,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -1266,9 +1278,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="26"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="8" t="s">
         <v>42</v>
       </c>
@@ -1280,9 +1292,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="8" t="s">
         <v>43</v>
       </c>
@@ -1294,9 +1306,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="11" t="s">
         <v>44</v>
       </c>
@@ -1308,127 +1320,143 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="36" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F31" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="35"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="35"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="35"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F35" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="22"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F36" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="10"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="F37" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="9"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="F38" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="9"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F39" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="11" t="s">
-        <v>62</v>
+      <c r="A40" s="35"/>
+      <c r="B40" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="5" t="s">
@@ -1436,73 +1464,120 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="24"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="10"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="7"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="F42" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="4"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="10"/>
       <c r="F43" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="4"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="10"/>
       <c r="F44" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>65</v>
+      </c>
       <c r="D45" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="35"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="35"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="35"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A27:A48"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
     <mergeCell ref="A4:A26"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="C16:C21"/>
@@ -1513,15 +1588,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A27:A45"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2726A3E7-0675-4ADD-B38F-714BC392FD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0BFDAE-79D2-45E2-90CB-FE8C6A0327DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="78">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -227,12 +227,6 @@
     <t>MỐC 2: Hoàn thành phiên bản cuối cùng của website đặt vé xem phim. Với các chức năng chính còn lại: Đặt vé,thanh toán online, quản lí thông tin khách hàng, nhân viên và thống kê doanh thu .</t>
   </si>
   <si>
-    <t>Code giao diện và xử lý chức năng thống kê từng chi nhánh</t>
-  </si>
-  <si>
-    <t>Code tạo mã QR cho hóa đơn</t>
-  </si>
-  <si>
     <t>Vẽ Class Diagram tổng hợp</t>
   </si>
   <si>
@@ -276,6 +270,9 @@
   </si>
   <si>
     <t>Phan Thanh Phúc Duy+Nguyễn Thái Đức</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng quản lí phòng và chi nhánh</t>
   </si>
 </sst>
 </file>
@@ -471,6 +468,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -492,12 +534,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -507,47 +543,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,20 +878,20 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -918,13 +915,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -938,9 +935,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
@@ -952,9 +949,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
@@ -966,9 +963,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
@@ -980,9 +977,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
@@ -994,9 +991,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="15" t="s">
         <v>34</v>
       </c>
@@ -1008,11 +1005,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1026,9 +1023,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1040,9 +1037,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1054,9 +1051,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1068,9 +1065,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1082,9 +1079,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1096,11 +1093,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="36" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1114,9 +1111,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="22"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1128,9 +1125,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="22"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
@@ -1142,9 +1139,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="22"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
@@ -1156,9 +1153,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="22"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
@@ -1170,11 +1167,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="22"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>21</v>
@@ -1184,15 +1181,15 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="38" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>21</v>
@@ -1202,11 +1199,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -1216,9 +1213,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1230,9 +1227,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="26"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1244,9 +1241,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="6" t="s">
         <v>47</v>
       </c>
@@ -1258,13 +1255,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="25" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -1278,9 +1275,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="33"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="8" t="s">
         <v>42</v>
       </c>
@@ -1292,9 +1289,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="33"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="8" t="s">
         <v>43</v>
       </c>
@@ -1306,9 +1303,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="34"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="11" t="s">
         <v>44</v>
       </c>
@@ -1320,11 +1317,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1338,11 +1335,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>15</v>
@@ -1350,11 +1347,11 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>21</v>
@@ -1364,11 +1361,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>15</v>
@@ -1378,9 +1375,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="37"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="3" t="s">
         <v>52</v>
       </c>
@@ -1392,9 +1389,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="37"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="3" t="s">
         <v>54</v>
       </c>
@@ -1406,9 +1403,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="37"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="3" t="s">
         <v>56</v>
       </c>
@@ -1420,9 +1417,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="37"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="3" t="s">
         <v>57</v>
       </c>
@@ -1434,9 +1431,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="38"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -1448,12 +1445,12 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>51</v>
@@ -1464,77 +1461,83 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="24"/>
-      <c r="C41" s="33"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="F41" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="24"/>
-      <c r="C42" s="33"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="33"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="F43" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="11" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="10"/>
+      <c r="D44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F44" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>65</v>
-      </c>
+      <c r="A45" s="16"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="E45" s="4"/>
       <c r="F45" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="3" t="s">
-        <v>68</v>
+      <c r="A46" s="16"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="5" t="s">
@@ -1542,42 +1545,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="4"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="7"/>
       <c r="F47" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A27:A48"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
     <mergeCell ref="A4:A26"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="C16:C21"/>
@@ -1588,6 +1570,15 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A27:A47"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0BFDAE-79D2-45E2-90CB-FE8C6A0327DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70AC4B2-7873-4969-AAFB-6918BCA24E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Tổng hợp tài liệu SRS</t>
   </si>
   <si>
-    <t>Tối ưu hóa các chức năng của website</t>
-  </si>
-  <si>
     <t>Tuần 7 (5/5 đến 12/5)</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>Code giao diện không tìm được phim + gợi ý tên phim</t>
   </si>
   <si>
-    <t>Kiểm tra bảo mật của website</t>
-  </si>
-  <si>
     <t>Vẽ kiến trúc phần mềm</t>
   </si>
   <si>
@@ -273,6 +267,15 @@
   </si>
   <si>
     <t>Code giao diện và xử lý chức năng quản lí phòng và chi nhánh</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng quản giỏ hàng</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng chọn đồ ăn</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng thống kê doanh thu</t>
   </si>
 </sst>
 </file>
@@ -468,19 +471,67 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,18 +540,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,42 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="D35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,20 +881,20 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -915,13 +918,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -935,9 +938,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
@@ -949,9 +952,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
@@ -963,9 +966,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
@@ -977,9 +980,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
@@ -991,9 +994,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="41"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="15" t="s">
         <v>34</v>
       </c>
@@ -1005,11 +1008,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1023,9 +1026,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="39"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1037,9 +1040,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="39"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1051,9 +1054,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="39"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1065,9 +1068,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="39"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1079,9 +1082,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="39"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1093,11 +1096,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1111,9 +1114,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="37"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1125,9 +1128,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
@@ -1139,9 +1142,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="37"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
@@ -1153,9 +1156,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
@@ -1167,11 +1170,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>21</v>
@@ -1181,15 +1184,15 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>21</v>
@@ -1199,11 +1202,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="39"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -1213,9 +1216,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="39"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1227,9 +1230,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="39"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1241,9 +1244,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="40"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="6" t="s">
         <v>47</v>
       </c>
@@ -1255,13 +1258,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -1275,9 +1278,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="26"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="8" t="s">
         <v>42</v>
       </c>
@@ -1289,9 +1292,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="8" t="s">
         <v>43</v>
       </c>
@@ -1303,9 +1306,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="11" t="s">
         <v>44</v>
       </c>
@@ -1317,11 +1320,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="36" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1330,28 +1333,30 @@
       <c r="E31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>60</v>
+      <c r="F31" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="21"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>21</v>
@@ -1361,11 +1366,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="21"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>15</v>
@@ -1375,191 +1380,214 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="21"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>60</v>
+      <c r="F35" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="21"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>60</v>
+      <c r="F36" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="21"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>60</v>
+      <c r="F37" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="21"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>60</v>
+      <c r="F38" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="22"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>60</v>
+      <c r="F39" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="5" t="s">
-        <v>60</v>
+      <c r="D40" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="24"/>
-      <c r="C41" s="26"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="24"/>
-      <c r="C42" s="26"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="26"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A44" s="35"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="9"/>
       <c r="F44" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="4"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="9"/>
       <c r="F45" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="4"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="9"/>
       <c r="F46" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="D47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="35"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="5" t="s">
+      <c r="E48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A27:A48"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
     <mergeCell ref="A4:A26"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="C16:C21"/>
@@ -1570,15 +1598,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A27:A47"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70AC4B2-7873-4969-AAFB-6918BCA24E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DE0A90-3075-4EE2-B36C-D3EDB5DAC648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -269,13 +269,16 @@
     <t>Code giao diện và xử lý chức năng quản lí phòng và chi nhánh</t>
   </si>
   <si>
-    <t>Code giao diện và xử lý chức năng quản giỏ hàng</t>
-  </si>
-  <si>
-    <t>Code giao diện và xử lý chức năng chọn đồ ăn</t>
-  </si>
-  <si>
     <t>Code giao diện và xử lý chức năng thống kê doanh thu</t>
+  </si>
+  <si>
+    <t>Code giao diện chọn đồ ăn và giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xử lý chức năng quản lí giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xử lý chức năng chọn đồ ăn</t>
   </si>
 </sst>
 </file>
@@ -471,6 +474,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -492,12 +540,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -507,47 +549,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="D33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,20 +884,20 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -918,13 +921,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -938,9 +941,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
@@ -952,9 +955,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
@@ -966,9 +969,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
@@ -980,9 +983,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
@@ -994,9 +997,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="15" t="s">
         <v>34</v>
       </c>
@@ -1008,11 +1011,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1026,9 +1029,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1040,9 +1043,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1054,9 +1057,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1068,9 +1071,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1082,9 +1085,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1096,11 +1099,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="36" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1114,9 +1117,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="22"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1128,9 +1131,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="22"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
@@ -1142,9 +1145,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="22"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
@@ -1156,9 +1159,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="22"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
@@ -1170,9 +1173,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="22"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="8" t="s">
         <v>68</v>
       </c>
@@ -1184,11 +1187,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="38" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1202,9 +1205,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="3" t="s">
         <v>70</v>
       </c>
@@ -1216,9 +1219,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1230,9 +1233,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="26"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1244,9 +1247,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="6" t="s">
         <v>47</v>
       </c>
@@ -1258,13 +1261,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="25" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -1278,9 +1281,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="33"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="8" t="s">
         <v>42</v>
       </c>
@@ -1292,9 +1295,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="33"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="8" t="s">
         <v>43</v>
       </c>
@@ -1306,9 +1309,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="34"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="11" t="s">
         <v>44</v>
       </c>
@@ -1320,11 +1323,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1338,9 +1341,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="3" t="s">
         <v>72</v>
       </c>
@@ -1352,9 +1355,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="3" t="s">
         <v>71</v>
       </c>
@@ -1366,9 +1369,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="3" t="s">
         <v>73</v>
       </c>
@@ -1380,9 +1383,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="37"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="3" t="s">
         <v>52</v>
       </c>
@@ -1394,9 +1397,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="37"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="3" t="s">
         <v>54</v>
       </c>
@@ -1408,9 +1411,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="37"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="3" t="s">
         <v>56</v>
       </c>
@@ -1422,9 +1425,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="37"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="3" t="s">
         <v>57</v>
       </c>
@@ -1436,9 +1439,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="38"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -1450,43 +1453,43 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D40" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="8" t="s">
+      <c r="F41" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>74</v>
@@ -1496,23 +1499,25 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="5" t="s">
-        <v>60</v>
+      <c r="C43" s="26"/>
+      <c r="D43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="24"/>
-      <c r="C44" s="33"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="5" t="s">
@@ -1520,11 +1525,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="24"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="8" t="s">
-        <v>51</v>
+      <c r="C45" s="26"/>
+      <c r="D45" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="5" t="s">
@@ -1532,11 +1537,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="33"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="8" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="5" t="s">
@@ -1544,50 +1549,53 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="39" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
+      <c r="B48" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C48" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="3" t="s">
+      <c r="F48" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A27:A48"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="C40:C46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
     <mergeCell ref="A4:A26"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="C16:C21"/>
@@ -1598,6 +1606,15 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A27:A49"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DE0A90-3075-4EE2-B36C-D3EDB5DAC648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B55AFA2-DB9D-4A11-AFE0-5595236FD113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -279,6 +279,30 @@
   </si>
   <si>
     <t>Xử lý chức năng chọn đồ ăn</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng quản lí vé phim</t>
+  </si>
+  <si>
+    <t>Chức năng bán vé tại quầy???</t>
+  </si>
+  <si>
+    <t>Chức năng đổi mật khẩu???</t>
+  </si>
+  <si>
+    <t>Activity và Sequence chức năng quản lí phòng chiếu, lịch chiếu</t>
+  </si>
+  <si>
+    <t>MỐC 3: Tổng hợp tài liệu và xử lý các chức năng còn lại</t>
+  </si>
+  <si>
+    <t>Vẽ database</t>
+  </si>
+  <si>
+    <t>Thời gian còn lại</t>
+  </si>
+  <si>
+    <t>_ Hoàn thiện tài liệu SRS và thêm vài chức năng</t>
   </si>
 </sst>
 </file>
@@ -316,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +386,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,39 +504,72 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,41 +579,8 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,20 +914,20 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -921,13 +951,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -941,9 +971,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
@@ -955,9 +985,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
@@ -969,9 +999,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
@@ -983,9 +1013,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
@@ -997,9 +1027,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="41"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="15" t="s">
         <v>34</v>
       </c>
@@ -1011,11 +1041,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1029,9 +1059,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="39"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1043,9 +1073,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="39"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1057,9 +1087,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="39"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1071,9 +1101,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="39"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1085,9 +1115,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="39"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1099,11 +1129,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1117,9 +1147,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="37"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1131,9 +1161,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
@@ -1145,9 +1175,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="37"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
@@ -1159,9 +1189,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
@@ -1173,9 +1203,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8" t="s">
         <v>68</v>
       </c>
@@ -1187,11 +1217,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1205,9 +1235,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="39"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="3" t="s">
         <v>70</v>
       </c>
@@ -1219,9 +1249,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="39"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1233,9 +1263,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="39"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1247,9 +1277,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="40"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="6" t="s">
         <v>47</v>
       </c>
@@ -1261,13 +1291,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -1281,9 +1311,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="26"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="8" t="s">
         <v>42</v>
       </c>
@@ -1295,9 +1325,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="8" t="s">
         <v>43</v>
       </c>
@@ -1309,9 +1339,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="11" t="s">
         <v>44</v>
       </c>
@@ -1323,11 +1353,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="36" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1341,9 +1371,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="3" t="s">
         <v>72</v>
       </c>
@@ -1355,9 +1385,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="21"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="3" t="s">
         <v>71</v>
       </c>
@@ -1369,9 +1399,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="21"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="3" t="s">
         <v>73</v>
       </c>
@@ -1383,219 +1413,297 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="21"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="35"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="35"/>
+      <c r="B37" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="35"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="35"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="35"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="35"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="35"/>
+      <c r="B42" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="35"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="35"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="35"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="F45" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="35"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="11" t="s">
+      <c r="F46" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>5</v>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="41"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A49" s="41"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="9"/>
       <c r="F49" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="41"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="41"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="41"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="41"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="41"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="C47:C54"/>
+    <mergeCell ref="A27:A46"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
     <mergeCell ref="A4:A26"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="C16:C21"/>
@@ -1606,15 +1714,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A27:A49"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70AC4B2-7873-4969-AAFB-6918BCA24E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B55AFA2-DB9D-4A11-AFE0-5595236FD113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -269,13 +269,40 @@
     <t>Code giao diện và xử lý chức năng quản lí phòng và chi nhánh</t>
   </si>
   <si>
-    <t>Code giao diện và xử lý chức năng quản giỏ hàng</t>
-  </si>
-  <si>
-    <t>Code giao diện và xử lý chức năng chọn đồ ăn</t>
-  </si>
-  <si>
     <t>Code giao diện và xử lý chức năng thống kê doanh thu</t>
+  </si>
+  <si>
+    <t>Code giao diện chọn đồ ăn và giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xử lý chức năng quản lí giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xử lý chức năng chọn đồ ăn</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng quản lí vé phim</t>
+  </si>
+  <si>
+    <t>Chức năng bán vé tại quầy???</t>
+  </si>
+  <si>
+    <t>Chức năng đổi mật khẩu???</t>
+  </si>
+  <si>
+    <t>Activity và Sequence chức năng quản lí phòng chiếu, lịch chiếu</t>
+  </si>
+  <si>
+    <t>MỐC 3: Tổng hợp tài liệu và xử lý các chức năng còn lại</t>
+  </si>
+  <si>
+    <t>Vẽ database</t>
+  </si>
+  <si>
+    <t>Thời gian còn lại</t>
+  </si>
+  <si>
+    <t>_ Hoàn thiện tài liệu SRS và thêm vài chức năng</t>
   </si>
 </sst>
 </file>
@@ -313,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +386,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,9 +570,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,6 +578,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1340,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="35"/>
-      <c r="B30" s="41"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="34"/>
       <c r="D30" s="11" t="s">
         <v>44</v>
@@ -1384,10 +1417,10 @@
       <c r="B35" s="29"/>
       <c r="C35" s="37"/>
       <c r="D35" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>5</v>
@@ -1398,10 +1431,10 @@
       <c r="B36" s="29"/>
       <c r="C36" s="37"/>
       <c r="D36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>5</v>
@@ -1409,13 +1442,17 @@
     </row>
     <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="35"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>17</v>
+      <c r="B37" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>5</v>
@@ -1423,13 +1460,13 @@
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="35"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>17</v>
+      <c r="B38" s="24"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>5</v>
@@ -1437,31 +1474,27 @@
     </row>
     <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="35"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>5</v>
+      <c r="B39" s="24"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="35"/>
-      <c r="B40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>75</v>
+      <c r="B40" s="24"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>5</v>
@@ -1472,10 +1505,10 @@
       <c r="B41" s="24"/>
       <c r="C41" s="33"/>
       <c r="D41" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>5</v>
@@ -1483,13 +1516,17 @@
     </row>
     <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>74</v>
+      <c r="B42" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>5</v>
@@ -1497,95 +1534,174 @@
     </row>
     <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="5" t="s">
-        <v>60</v>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="5" t="s">
-        <v>60</v>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="5" t="s">
-        <v>60</v>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="35"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="8" t="s">
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="41"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="E48" s="9"/>
       <c r="F48" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="41"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="41"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="41"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="41"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="41"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="41"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A27:A48"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="C40:C46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
+  <mergeCells count="22">
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="C47:C54"/>
+    <mergeCell ref="A27:A46"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="A4:A26"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B55AFA2-DB9D-4A11-AFE0-5595236FD113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A6A93-6F25-49FF-A055-88C7D590CF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -224,18 +224,12 @@
     <t>Chưa hoàn thành</t>
   </si>
   <si>
-    <t>MỐC 2: Hoàn thành phiên bản cuối cùng của website đặt vé xem phim. Với các chức năng chính còn lại: Đặt vé,thanh toán online, quản lí thông tin khách hàng, nhân viên và thống kê doanh thu .</t>
-  </si>
-  <si>
     <t>Vẽ Class Diagram tổng hợp</t>
   </si>
   <si>
     <t>_Hoàn thiện tài liệu SRS và tối ưu hóa website</t>
   </si>
   <si>
-    <t>_Code xử lý các chức năng của thanh toán, quản lí thông tin nhân viên và khách hàng</t>
-  </si>
-  <si>
     <t>Tổng hợp tài liệu SRS</t>
   </si>
   <si>
@@ -303,6 +297,12 @@
   </si>
   <si>
     <t>_ Hoàn thiện tài liệu SRS và thêm vài chức năng</t>
+  </si>
+  <si>
+    <t>MỐC 2: Hoàn thành phiên bản cuối cùng của website đặt vé xem phim. Với các chức năng chính còn lại: Đặt vé,đồ ăn, quản lí thông tin khách hàng, nhân viên và thống kê doanh thu . Phân quyền admin và user</t>
+  </si>
+  <si>
+    <t>_Code xử lý các chức năng quản lí thông tin nhân viên và khách hàng</t>
   </si>
 </sst>
 </file>
@@ -504,6 +504,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -525,12 +567,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -540,47 +576,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="D39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,20 +914,20 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -951,13 +951,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -971,9 +971,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
@@ -985,9 +985,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
@@ -999,9 +999,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1013,9 +1013,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1027,9 +1027,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="15" t="s">
         <v>34</v>
       </c>
@@ -1041,11 +1041,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1059,9 +1059,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1073,9 +1073,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1087,9 +1087,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1101,9 +1101,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1115,9 +1115,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1129,11 +1129,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1147,9 +1147,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1161,9 +1161,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
@@ -1175,9 +1175,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
@@ -1189,9 +1189,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
@@ -1203,11 +1203,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>21</v>
@@ -1217,15 +1217,15 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="37" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>21</v>
@@ -1235,11 +1235,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -1249,9 +1249,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1263,9 +1263,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="26"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1277,9 +1277,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="6" t="s">
         <v>47</v>
       </c>
@@ -1291,13 +1291,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -1311,9 +1311,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="8" t="s">
         <v>42</v>
       </c>
@@ -1325,9 +1325,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="8" t="s">
         <v>43</v>
       </c>
@@ -1339,9 +1339,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="34"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="11" t="s">
         <v>44</v>
       </c>
@@ -1353,11 +1353,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1371,11 +1371,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>15</v>
@@ -1385,11 +1385,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>21</v>
@@ -1399,11 +1399,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>15</v>
@@ -1413,9 +1413,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="37"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="3" t="s">
         <v>54</v>
       </c>
@@ -1427,9 +1427,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="37"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="3" t="s">
         <v>56</v>
       </c>
@@ -1441,15 +1441,15 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="32" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="17" t="s">
         <v>64</v>
       </c>
+      <c r="C37" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="D37" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>14</v>
@@ -1459,11 +1459,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>15</v>
@@ -1473,23 +1473,23 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="33"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="33"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="8" t="s">
         <v>57</v>
       </c>
@@ -1501,9 +1501,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="33"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="8" t="s">
         <v>59</v>
       </c>
@@ -1515,15 +1515,15 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>63</v>
+      <c r="A42" s="21"/>
+      <c r="B42" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>12</v>
@@ -1533,11 +1533,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>15</v>
@@ -1547,23 +1547,23 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="3" t="s">
         <v>52</v>
       </c>
@@ -1575,11 +1575,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>14</v>
@@ -1589,17 +1589,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>87</v>
+      <c r="C47" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="5" t="s">
@@ -1607,11 +1607,11 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="33"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="5" t="s">
@@ -1619,9 +1619,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="33"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="8" t="s">
         <v>51</v>
       </c>
@@ -1631,23 +1631,25 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="33"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="F50" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="33"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="5" t="s">
@@ -1655,23 +1657,25 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="33"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="F52" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="33"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="5" t="s">
@@ -1679,11 +1683,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="41"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="33"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="5" t="s">
@@ -1692,6 +1696,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A4:A26"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B10:B15"/>
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="B47:B54"/>
     <mergeCell ref="C47:C54"/>
@@ -1704,16 +1718,6 @@
     <mergeCell ref="C42:C46"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A4:A26"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Document\dacnpm\b\DACN_HeThongDatVe\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0BFDAE-79D2-45E2-90CB-FE8C6A0327DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5F1B9E-584E-4437-AE94-6CF3034B678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -224,24 +224,15 @@
     <t>Chưa hoàn thành</t>
   </si>
   <si>
-    <t>MỐC 2: Hoàn thành phiên bản cuối cùng của website đặt vé xem phim. Với các chức năng chính còn lại: Đặt vé,thanh toán online, quản lí thông tin khách hàng, nhân viên và thống kê doanh thu .</t>
-  </si>
-  <si>
     <t>Vẽ Class Diagram tổng hợp</t>
   </si>
   <si>
     <t>_Hoàn thiện tài liệu SRS và tối ưu hóa website</t>
   </si>
   <si>
-    <t>_Code xử lý các chức năng của thanh toán, quản lí thông tin nhân viên và khách hàng</t>
-  </si>
-  <si>
     <t>Tổng hợp tài liệu SRS</t>
   </si>
   <si>
-    <t>Tối ưu hóa các chức năng của website</t>
-  </si>
-  <si>
     <t>Tuần 7 (5/5 đến 12/5)</t>
   </si>
   <si>
@@ -263,9 +254,6 @@
     <t>Code giao diện không tìm được phim + gợi ý tên phim</t>
   </si>
   <si>
-    <t>Kiểm tra bảo mật của website</t>
-  </si>
-  <si>
     <t>Vẽ kiến trúc phần mềm</t>
   </si>
   <si>
@@ -273,6 +261,51 @@
   </si>
   <si>
     <t>Code giao diện và xử lý chức năng quản lí phòng và chi nhánh</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng thống kê doanh thu</t>
+  </si>
+  <si>
+    <t>Code giao diện chọn đồ ăn và giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xử lý chức năng quản lí giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xử lý chức năng chọn đồ ăn</t>
+  </si>
+  <si>
+    <t>Code giao diện và xử lý chức năng quản lí vé phim</t>
+  </si>
+  <si>
+    <t>Chức năng bán vé tại quầy???</t>
+  </si>
+  <si>
+    <t>Chức năng đổi mật khẩu???</t>
+  </si>
+  <si>
+    <t>Activity và Sequence chức năng quản lí phòng chiếu, lịch chiếu</t>
+  </si>
+  <si>
+    <t>MỐC 3: Tổng hợp tài liệu và xử lý các chức năng còn lại</t>
+  </si>
+  <si>
+    <t>Vẽ database</t>
+  </si>
+  <si>
+    <t>Thời gian còn lại</t>
+  </si>
+  <si>
+    <t>_ Hoàn thiện tài liệu SRS và thêm vài chức năng</t>
+  </si>
+  <si>
+    <t>MỐC 2: Hoàn thành phiên bản cuối cùng của website đặt vé xem phim. Với các chức năng chính còn lại: Đặt vé,đồ ăn, quản lí thông tin khách hàng, nhân viên và thống kê doanh thu . Phân quyền admin và user</t>
+  </si>
+  <si>
+    <t>_Code xử lý các chức năng quản lí thông tin nhân viên và khách hàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Đức</t>
   </si>
 </sst>
 </file>
@@ -310,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +389,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,39 +507,75 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,42 +584,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,41 +899,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="104.5703125" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="104.5546875" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -914,14 +953,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -934,10 +973,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="37"/>
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
@@ -948,10 +987,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="37"/>
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
@@ -962,10 +1001,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="37"/>
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
@@ -976,10 +1015,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="37"/>
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
@@ -990,10 +1029,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="41"/>
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="15" t="s">
         <v>34</v>
       </c>
@@ -1004,12 +1043,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1022,10 +1061,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="39"/>
+    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1036,10 +1075,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="39"/>
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1050,10 +1089,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="39"/>
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1064,10 +1103,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="39"/>
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1078,10 +1117,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="39"/>
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1092,12 +1131,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1110,10 +1149,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A17" s="17"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="37"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1124,10 +1163,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
+    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A18" s="17"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
@@ -1138,10 +1177,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
+    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A19" s="17"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="37"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
@@ -1152,10 +1191,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
+    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A20" s="17"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
@@ -1166,12 +1205,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
+    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="37"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>21</v>
@@ -1180,16 +1219,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="17"/>
+      <c r="B22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>21</v>
@@ -1198,12 +1237,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="39"/>
+    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -1212,10 +1251,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="39"/>
+    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1226,10 +1265,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="39"/>
+    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1240,10 +1279,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="40"/>
+    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="6" t="s">
         <v>47</v>
       </c>
@@ -1254,14 +1293,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>61</v>
+    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -1274,10 +1313,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
+    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="36"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="26"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="8" t="s">
         <v>42</v>
       </c>
@@ -1288,10 +1327,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A29" s="36"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="8" t="s">
         <v>43</v>
       </c>
@@ -1302,10 +1341,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
+    <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A30" s="36"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="11" t="s">
         <v>44</v>
       </c>
@@ -1316,12 +1355,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
+    <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A31" s="36"/>
+      <c r="B31" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1330,28 +1369,30 @@
       <c r="E31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="21"/>
+      <c r="F31" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A32" s="36"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="21"/>
+      <c r="F32" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A33" s="36"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>21</v>
@@ -1360,12 +1401,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="21"/>
+    <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A34" s="36"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>15</v>
@@ -1374,192 +1415,302 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="21"/>
+    <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A35" s="36"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A36" s="36"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A37" s="36"/>
+      <c r="B37" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>12</v>
+      <c r="F37" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A38" s="36"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A39" s="36"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>64</v>
-      </c>
+    <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A40" s="36"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+        <v>57</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A41" s="36"/>
       <c r="B41" s="24"/>
-      <c r="C41" s="26"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A42" s="36"/>
+      <c r="B42" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A43" s="36"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A44" s="36"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="11" t="s">
+      <c r="E44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A45" s="36"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A46" s="36"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="35"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A49" s="35"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A50" s="35"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A51" s="35"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A52" s="35"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A53" s="35"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A54" s="35"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="C47:C54"/>
+    <mergeCell ref="A27:A46"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
     <mergeCell ref="A4:A26"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="C16:C21"/>
@@ -1570,15 +1721,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A27:A47"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Document\dacnpm\b\DACN_HeThongDatVe\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A6A93-6F25-49FF-A055-88C7D590CF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928BB300-31D5-4764-B420-D01C7F5AB0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>_Code xử lý các chức năng quản lí thông tin nhân viên và khách hàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Đức</t>
   </si>
 </sst>
 </file>
@@ -504,31 +507,70 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,45 +584,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,39 +901,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="D59" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="104.5703125" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="104.5546875" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -950,14 +953,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -970,10 +973,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="36"/>
+    <row r="5" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
@@ -984,10 +987,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="36"/>
+    <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
@@ -998,10 +1001,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="36"/>
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1012,10 +1015,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="36"/>
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1026,10 +1029,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="41"/>
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="15" t="s">
         <v>34</v>
       </c>
@@ -1040,12 +1043,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="22" t="s">
+    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1058,10 +1061,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="38"/>
+    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
@@ -1072,10 +1075,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="38"/>
+    <row r="12" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1086,10 +1089,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="38"/>
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1100,10 +1103,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="38"/>
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1114,10 +1117,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="38"/>
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1128,12 +1131,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1146,10 +1149,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="36"/>
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A17" s="17"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1160,10 +1163,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="36"/>
+    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A18" s="17"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
@@ -1174,10 +1177,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="36"/>
+    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A19" s="17"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
@@ -1188,10 +1191,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="36"/>
+    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A20" s="17"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
@@ -1202,10 +1205,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="36"/>
+    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8" t="s">
         <v>66</v>
       </c>
@@ -1216,12 +1219,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="22" t="s">
+    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="17"/>
+      <c r="B22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1234,10 +1237,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="38"/>
+    <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="3" t="s">
         <v>68</v>
       </c>
@@ -1248,10 +1251,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="38"/>
+    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1262,10 +1265,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="38"/>
+    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1276,10 +1279,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="39"/>
+    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="6" t="s">
         <v>47</v>
       </c>
@@ -1290,14 +1293,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -1310,10 +1313,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="20"/>
+    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="36"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="8" t="s">
         <v>42</v>
       </c>
@@ -1324,10 +1327,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="20"/>
+    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A29" s="36"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="8" t="s">
         <v>43</v>
       </c>
@@ -1338,10 +1341,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
+    <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A30" s="36"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="11" t="s">
         <v>44</v>
       </c>
@@ -1352,12 +1355,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22" t="s">
+    <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A31" s="36"/>
+      <c r="B31" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1370,10 +1373,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="25"/>
+    <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A32" s="36"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="3" t="s">
         <v>70</v>
       </c>
@@ -1384,10 +1387,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="25"/>
+    <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A33" s="36"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="3" t="s">
         <v>69</v>
       </c>
@@ -1398,10 +1401,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="25"/>
+    <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A34" s="36"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="3" t="s">
         <v>71</v>
       </c>
@@ -1412,10 +1415,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="25"/>
+    <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A35" s="36"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="3" t="s">
         <v>54</v>
       </c>
@@ -1426,10 +1429,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="25"/>
+    <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A36" s="36"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="3" t="s">
         <v>56</v>
       </c>
@@ -1440,12 +1443,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="17" t="s">
+    <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A37" s="36"/>
+      <c r="B37" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="32" t="s">
         <v>87</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -1458,10 +1461,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="20"/>
+    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A38" s="36"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="11" t="s">
         <v>73</v>
       </c>
@@ -1472,10 +1475,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="20"/>
+    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A39" s="36"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="8" t="s">
         <v>53</v>
       </c>
@@ -1486,10 +1489,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="20"/>
+    <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A40" s="36"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="8" t="s">
         <v>57</v>
       </c>
@@ -1500,10 +1503,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="20"/>
+    <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A41" s="36"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="8" t="s">
         <v>59</v>
       </c>
@@ -1514,12 +1517,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="26" t="s">
+    <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A42" s="36"/>
+      <c r="B42" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -1532,10 +1535,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
+    <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A43" s="36"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="3" t="s">
         <v>78</v>
       </c>
@@ -1546,24 +1549,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
+    <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A44" s="36"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
+    <row r="45" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A45" s="36"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="3" t="s">
         <v>52</v>
       </c>
@@ -1574,10 +1577,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="27"/>
+    <row r="46" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A46" s="36"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="3" t="s">
         <v>63</v>
       </c>
@@ -1588,14 +1591,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="32" t="s">
         <v>85</v>
       </c>
       <c r="D47" s="11" t="s">
@@ -1606,10 +1609,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="20"/>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="35"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="11" t="s">
         <v>76</v>
       </c>
@@ -1618,10 +1621,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="20"/>
+    <row r="49" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A49" s="35"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="8" t="s">
         <v>51</v>
       </c>
@@ -1630,10 +1633,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="20"/>
+    <row r="50" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A50" s="35"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="8" t="s">
         <v>74</v>
       </c>
@@ -1644,10 +1647,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="20"/>
+    <row r="51" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A51" s="35"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="8" t="s">
         <v>81</v>
       </c>
@@ -1656,24 +1659,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="20"/>
+    <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A52" s="35"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="20"/>
+      <c r="F52" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A53" s="35"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="8" t="s">
         <v>79</v>
       </c>
@@ -1682,10 +1685,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="20"/>
+    <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A54" s="35"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="8" t="s">
         <v>83</v>
       </c>
@@ -1696,16 +1699,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A4:A26"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="B10:B15"/>
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="B47:B54"/>
     <mergeCell ref="C47:C54"/>
@@ -1718,6 +1711,16 @@
     <mergeCell ref="C42:C46"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A4:A26"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
+++ b/Phân công đánh giá công việc/PhanCongCongViecMoc1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công đánh giá công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A6A93-6F25-49FF-A055-88C7D590CF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E69E6B2-C225-480B-BB9F-A2C95DC1E41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="88">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -278,9 +278,6 @@
     <t>Code giao diện và xử lý chức năng quản lí vé phim</t>
   </si>
   <si>
-    <t>Chức năng bán vé tại quầy???</t>
-  </si>
-  <si>
     <t>Chức năng đổi mật khẩu???</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>_Code xử lý các chức năng quản lí thông tin nhân viên và khách hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa chức năng đăng kí </t>
   </si>
 </sst>
 </file>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>45</v>
@@ -1446,7 +1446,7 @@
         <v>64</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>75</v>
@@ -1590,18 +1590,20 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="F47" s="5" t="s">
         <v>60</v>
       </c>
@@ -1613,7 +1615,9 @@
       <c r="D48" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="F48" s="5" t="s">
         <v>60</v>
       </c>
@@ -1625,9 +1629,11 @@
       <c r="D49" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="5" t="s">
-        <v>60</v>
+      <c r="E49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1640,8 +1646,8 @@
       <c r="E50" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>60</v>
+      <c r="F50" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1649,9 +1655,11 @@
       <c r="B51" s="18"/>
       <c r="C51" s="20"/>
       <c r="D51" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F51" s="5" t="s">
         <v>60</v>
       </c>
@@ -1661,13 +1669,13 @@
       <c r="B52" s="18"/>
       <c r="C52" s="20"/>
       <c r="D52" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>60</v>
+      <c r="F52" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1675,9 +1683,11 @@
       <c r="B53" s="18"/>
       <c r="C53" s="20"/>
       <c r="D53" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="F53" s="5" t="s">
         <v>60</v>
       </c>
@@ -1687,9 +1697,11 @@
       <c r="B54" s="18"/>
       <c r="C54" s="20"/>
       <c r="D54" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F54" s="5" t="s">
         <v>60</v>
       </c>
